--- a/output/2017-04-01 to 2017-05-01.xlsx
+++ b/output/2017-04-01 to 2017-05-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -113,6 +113,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-101-01</t>
   </si>
   <si>
@@ -129,6 +132,24 @@
   </si>
   <si>
     <t>2016-10-105-01</t>
+  </si>
+  <si>
+    <t>['Arun Lakshmanan', 'Mitchell Jones']</t>
+  </si>
+  <si>
+    <t>['Won Dong Shin']</t>
+  </si>
+  <si>
+    <t>['Mihary Ito']</t>
+  </si>
+  <si>
+    <t>['Gavin Ananda']</t>
+  </si>
+  <si>
+    <t>['Aygen Berk Cagilci', 'Daniel Olivas Hernandez']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
   </si>
   <si>
     <t>cfop_NH</t>
@@ -849,13 +870,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -865,13 +886,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>45</v>
@@ -879,13 +903,16 @@
       <c r="D2">
         <v>62.06896551724138</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>9.5</v>
@@ -893,13 +920,16 @@
       <c r="D3">
         <v>13.10344827586207</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -907,13 +937,16 @@
       <c r="D4">
         <v>11.03448275862069</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4.5</v>
@@ -921,13 +954,16 @@
       <c r="D5">
         <v>6.206896551724138</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -935,19 +971,25 @@
       <c r="D6">
         <v>4.137931034482759</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>2.5</v>
       </c>
       <c r="D7">
         <v>3.448275862068965</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>45</v>
@@ -993,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>9.5</v>
@@ -1007,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1021,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1035,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1049,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>4.5</v>
